--- a/KupiPai/prices_comp_v3_available.xlsx
+++ b/KupiPai/prices_comp_v3_available.xlsx
@@ -404,7 +404,7 @@
         <v>51901</v>
       </c>
       <c r="B3">
-        <v>42286</v>
+        <v>41845</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>66228</v>
       </c>
       <c r="B4">
-        <v>77176</v>
+        <v>76429</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -484,7 +484,7 @@
         <v>14752</v>
       </c>
       <c r="B13">
-        <v>16261</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>78851</v>
       </c>
       <c r="B14">
-        <v>63051</v>
+        <v>62990</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -532,7 +532,7 @@
         <v>50490</v>
       </c>
       <c r="B19">
-        <v>56476</v>
+        <v>61722</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>49952</v>
       </c>
       <c r="B20">
-        <v>43079</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>108437</v>
       </c>
       <c r="B21">
-        <v>88855</v>
+        <v>91037</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -588,7 +588,7 @@
         <v>42156</v>
       </c>
       <c r="B26">
-        <v>32698</v>
+        <v>33406</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -644,7 +644,7 @@
         <v>79482</v>
       </c>
       <c r="B33">
-        <v>85690</v>
+        <v>93949</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>49101</v>
       </c>
       <c r="B34">
-        <v>29691</v>
+        <v>30015</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>66887</v>
       </c>
       <c r="B35">
-        <v>56704</v>
+        <v>56851</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -692,7 +692,7 @@
         <v>70000</v>
       </c>
       <c r="B39">
-        <v>59740</v>
+        <v>62388</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -708,7 +708,7 @@
         <v>54527</v>
       </c>
       <c r="B41">
-        <v>39528</v>
+        <v>40390</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>40516</v>
       </c>
       <c r="B42">
-        <v>60964</v>
+        <v>58262</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -796,7 +796,7 @@
         <v>70372</v>
       </c>
       <c r="B52">
-        <v>82897</v>
+        <v>82601</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>63123</v>
       </c>
       <c r="B53">
-        <v>59355</v>
+        <v>58889</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -820,7 +820,7 @@
         <v>57231</v>
       </c>
       <c r="B55">
-        <v>40436</v>
+        <v>39676</v>
       </c>
     </row>
   </sheetData>

--- a/KupiPai/prices_comp_v3_available.xlsx
+++ b/KupiPai/prices_comp_v3_available.xlsx
@@ -396,7 +396,7 @@
         <v>63489</v>
       </c>
       <c r="B2">
-        <v>64207</v>
+        <v>64787</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>51901</v>
       </c>
       <c r="B3">
-        <v>41845</v>
+        <v>42743</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>66228</v>
       </c>
       <c r="B4">
-        <v>76429</v>
+        <v>77907</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>11023</v>
       </c>
       <c r="B5">
-        <v>13367</v>
+        <v>13983</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>91230</v>
       </c>
       <c r="B6">
-        <v>84099</v>
+        <v>81991</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>38080</v>
       </c>
       <c r="B7">
-        <v>47868</v>
+        <v>47714</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>30365</v>
       </c>
       <c r="B8">
-        <v>30975</v>
+        <v>31661</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>94562</v>
       </c>
       <c r="B9">
-        <v>90353</v>
+        <v>89848</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>53878</v>
       </c>
       <c r="B10">
-        <v>62661</v>
+        <v>62740</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>80477</v>
       </c>
       <c r="B11">
-        <v>75337</v>
+        <v>75382</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>59412</v>
       </c>
       <c r="B12">
-        <v>50421</v>
+        <v>50004</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>14752</v>
       </c>
       <c r="B13">
-        <v>17929</v>
+        <v>17165</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>78851</v>
       </c>
       <c r="B14">
-        <v>62990</v>
+        <v>64556</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>54674</v>
       </c>
       <c r="B15">
-        <v>43913</v>
+        <v>43624</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>55885</v>
       </c>
       <c r="B16">
-        <v>59051</v>
+        <v>57825</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>60948</v>
       </c>
       <c r="B17">
-        <v>66571</v>
+        <v>67518</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>35017</v>
       </c>
       <c r="B18">
-        <v>43267</v>
+        <v>43915</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>50490</v>
       </c>
       <c r="B19">
-        <v>61722</v>
+        <v>58663</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>49952</v>
       </c>
       <c r="B20">
-        <v>44031</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>108437</v>
       </c>
       <c r="B21">
-        <v>91037</v>
+        <v>89404</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>53267</v>
       </c>
       <c r="B22">
-        <v>56982</v>
+        <v>57020</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>68001</v>
       </c>
       <c r="B23">
-        <v>62623</v>
+        <v>63293</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>34927</v>
       </c>
       <c r="B24">
-        <v>56516</v>
+        <v>55776</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>52543</v>
       </c>
       <c r="B25">
-        <v>57890</v>
+        <v>58211</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>42156</v>
       </c>
       <c r="B26">
-        <v>33406</v>
+        <v>32394</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>127605</v>
       </c>
       <c r="B27">
-        <v>55166</v>
+        <v>54721</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>34592</v>
       </c>
       <c r="B28">
-        <v>30749</v>
+        <v>30805</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>34843</v>
       </c>
       <c r="B29">
-        <v>62310</v>
+        <v>61866</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>34206</v>
       </c>
       <c r="B30">
-        <v>32297</v>
+        <v>32072</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>107411</v>
       </c>
       <c r="B31">
-        <v>85831</v>
+        <v>86546</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>67942</v>
       </c>
       <c r="B32">
-        <v>57105</v>
+        <v>55407</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>79482</v>
       </c>
       <c r="B33">
-        <v>93949</v>
+        <v>106390</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>49101</v>
       </c>
       <c r="B34">
-        <v>30015</v>
+        <v>27099</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>66887</v>
       </c>
       <c r="B35">
-        <v>56851</v>
+        <v>56553</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>36400</v>
       </c>
       <c r="B36">
-        <v>34001</v>
+        <v>32889</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>67342</v>
       </c>
       <c r="B37">
-        <v>63881</v>
+        <v>63980</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>33135</v>
       </c>
       <c r="B38">
-        <v>33090</v>
+        <v>33508</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>70000</v>
       </c>
       <c r="B39">
-        <v>62388</v>
+        <v>59255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>49965</v>
       </c>
       <c r="B40">
-        <v>36612</v>
+        <v>36459</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>54527</v>
       </c>
       <c r="B41">
-        <v>40390</v>
+        <v>40079</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>40516</v>
       </c>
       <c r="B42">
-        <v>58262</v>
+        <v>57364</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>34764</v>
+        <v>35235</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>11023</v>
       </c>
       <c r="B44">
-        <v>13367</v>
+        <v>13983</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>112000</v>
       </c>
       <c r="B45">
-        <v>85733</v>
+        <v>86737</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49623</v>
       </c>
       <c r="B46">
-        <v>43480</v>
+        <v>42959</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>57301</v>
       </c>
       <c r="B47">
-        <v>52917</v>
+        <v>53227</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>67045</v>
       </c>
       <c r="B48">
-        <v>70481</v>
+        <v>70456</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>32619</v>
       </c>
       <c r="B49">
-        <v>33676</v>
+        <v>33216</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53117</v>
       </c>
       <c r="B50">
-        <v>46883</v>
+        <v>46507</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>32923</v>
       </c>
       <c r="B51">
-        <v>48266</v>
+        <v>47763</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>70372</v>
       </c>
       <c r="B52">
-        <v>82601</v>
+        <v>81834</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>63123</v>
       </c>
       <c r="B53">
-        <v>58889</v>
+        <v>58343</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>58711</v>
       </c>
       <c r="B54">
-        <v>64603</v>
+        <v>66502</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>57231</v>
       </c>
       <c r="B55">
-        <v>39676</v>
+        <v>39716</v>
       </c>
     </row>
   </sheetData>
